--- a/input/demand.xlsx
+++ b/input/demand.xlsx
@@ -206,7 +206,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -263,7 +263,7 @@
         <v>2025</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>201</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -505,7 +505,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="1" t="s">

--- a/input/demand.xlsx
+++ b/input/demand.xlsx
@@ -10,6 +10,9 @@
   <sheets>
     <sheet name="demand" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">demand!$A$1:$E$18</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -195,18 +198,39 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
+  <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -246,7 +270,7 @@
         <v>2025</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -280,7 +304,7 @@
         <v>2025</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -300,7 +324,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -317,7 +341,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -334,7 +358,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -351,7 +375,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -368,7 +392,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -385,7 +409,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -402,7 +426,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -419,7 +443,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -453,7 +477,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -470,7 +494,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -487,7 +511,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -504,7 +528,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -522,6 +546,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E18">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="National Trends"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -529,5 +560,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/input/demand.xlsx
+++ b/input/demand.xlsx
@@ -11,7 +11,7 @@
     <sheet name="demand" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">demand!$A$1:$E$18</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">demand!$A$1:$E$19</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="20">
   <si>
     <t xml:space="preserve">Node</t>
   </si>
@@ -55,13 +55,13 @@
     <t xml:space="preserve">SE01</t>
   </si>
   <si>
+    <t xml:space="preserve">SE02</t>
+  </si>
+  <si>
     <t xml:space="preserve">NON1</t>
   </si>
   <si>
     <t xml:space="preserve">Distributed Energy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SE02</t>
   </si>
   <si>
     <t xml:space="preserve">SE04</t>
@@ -227,10 +227,10 @@
   <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
+      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -324,21 +324,21 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>2040</v>
+        <v>2025</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>2000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -346,95 +346,95 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7" s="3" t="n">
         <v>2040</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>395</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" s="3" t="n">
         <v>2040</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>1200</v>
+        <v>395</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D9" s="3" t="n">
         <v>2040</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D10" s="3" t="n">
         <v>2040</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D11" s="3" t="n">
         <v>2040</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D12" s="3" t="n">
         <v>2040</v>
@@ -445,39 +445,39 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="3" t="n">
+        <v>2040</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="3" t="n">
-        <v>2040</v>
-      </c>
-      <c r="E13" s="1" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="B14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>2025</v>
+        <v>2040</v>
       </c>
       <c r="E14" s="1" t="n">
         <v>500</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -485,68 +485,85 @@
         <v>6</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>2040</v>
+        <v>2025</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D16" s="3" t="n">
         <v>2040</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D17" s="3" t="n">
         <v>2040</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>1500</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="3" t="n">
+        <v>2040</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="3" t="n">
-        <v>2040</v>
-      </c>
-      <c r="E18" s="1" t="n">
+      <c r="B19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="3" t="n">
+        <v>2040</v>
+      </c>
+      <c r="E19" s="1" t="n">
         <v>1000</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E18">
+  <autoFilter ref="A1:E19">
     <filterColumn colId="2">
       <filters>
         <filter val="National Trends"/>

--- a/input/demand.xlsx
+++ b/input/demand.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="21">
   <si>
     <t xml:space="preserve">Node</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t xml:space="preserve">NL00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOS0</t>
   </si>
 </sst>
 </file>
@@ -227,10 +230,10 @@
   <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -256,7 +259,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -273,7 +276,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -290,7 +293,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -307,7 +310,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -324,7 +327,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -341,7 +344,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -358,7 +361,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -375,7 +378,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -392,7 +395,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -409,7 +412,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -426,7 +429,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -443,7 +446,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -460,7 +463,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -477,7 +480,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -494,7 +497,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -511,7 +514,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -528,7 +531,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -545,7 +548,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -560,13 +563,30 @@
       </c>
       <c r="E19" s="1" t="n">
         <v>1000</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="3" t="n">
+        <v>2040</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E19">
     <filterColumn colId="2">
       <filters>
-        <filter val="National Trends"/>
+        <filter val="Distributed Energy"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/input/demand.xlsx
+++ b/input/demand.xlsx
@@ -233,7 +233,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -358,7 +358,7 @@
         <v>2040</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -566,7 +566,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="1" t="s">

--- a/input/demand.xlsx
+++ b/input/demand.xlsx
@@ -233,7 +233,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+      <selection pane="topLeft" activeCell="K13" activeCellId="0" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -358,7 +358,7 @@
         <v>2040</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>2500</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -392,7 +392,7 @@
         <v>2040</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>1200</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/input/demand.xlsx
+++ b/input/demand.xlsx
@@ -233,7 +233,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K13" activeCellId="0" sqref="K13"/>
+      <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -358,7 +358,7 @@
         <v>2040</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>2600</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/input/demand.xlsx
+++ b/input/demand.xlsx
@@ -8,10 +8,10 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="demand" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="demand" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">demand!$A$1:$E$19</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">demand!$A$1:$E$20</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="21">
   <si>
     <t xml:space="preserve">Node</t>
   </si>
@@ -205,7 +205,7 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -213,7 +213,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -225,15 +225,121 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
+      <selection pane="topLeft" activeCell="E37" activeCellId="0" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -259,7 +365,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -273,10 +379,10 @@
         <v>2025</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -293,7 +399,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -310,7 +416,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -327,7 +433,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -344,7 +450,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -361,7 +467,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -378,7 +484,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -395,7 +501,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -412,7 +518,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -429,7 +535,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -446,7 +552,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -463,7 +569,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -480,7 +586,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -497,7 +603,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -514,7 +620,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -531,7 +637,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -548,7 +654,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -565,7 +671,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
@@ -582,11 +688,113 @@
         <v>500</v>
       </c>
     </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>2030</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>2030</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>2030</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>2030</v>
+      </c>
+      <c r="E24" s="1" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>2030</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>2030</v>
+      </c>
+      <c r="E26" s="1" t="n">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E19">
+  <autoFilter ref="A1:E20">
     <filterColumn colId="2">
       <filters>
-        <filter val="Distributed Energy"/>
+        <filter val="National Trends"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/input/demand.xlsx
+++ b/input/demand.xlsx
@@ -339,7 +339,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E37" activeCellId="0" sqref="E37"/>
+      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -379,7 +379,7 @@
         <v>2025</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -396,7 +396,7 @@
         <v>2025</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -698,11 +698,11 @@
       <c r="C21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="D21" s="1" t="n">
         <v>2030</v>
       </c>
-      <c r="E21" s="0" t="n">
-        <v>500</v>
+      <c r="E21" s="1" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -715,11 +715,11 @@
       <c r="C22" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="D22" s="1" t="n">
         <v>2030</v>
       </c>
-      <c r="E22" s="0" t="n">
-        <v>500</v>
+      <c r="E22" s="1" t="n">
+        <v>350</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -732,10 +732,10 @@
       <c r="C23" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="D23" s="1" t="n">
         <v>2030</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="E23" s="1" t="n">
         <v>250</v>
       </c>
     </row>
@@ -749,7 +749,7 @@
       <c r="C24" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="D24" s="1" t="n">
         <v>2030</v>
       </c>
       <c r="E24" s="1" t="n">
@@ -766,7 +766,7 @@
       <c r="C25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="D25" s="1" t="n">
         <v>2030</v>
       </c>
       <c r="E25" s="1" t="n">
@@ -783,7 +783,7 @@
       <c r="C26" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="D26" s="1" t="n">
         <v>2030</v>
       </c>
       <c r="E26" s="1" t="n">

--- a/input/demand.xlsx
+++ b/input/demand.xlsx
@@ -11,7 +11,7 @@
     <sheet name="demand" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">demand!$A$1:$E$20</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">demand!$A$1:$E$26</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="23">
   <si>
     <t xml:space="preserve">Node</t>
   </si>
@@ -86,6 +86,12 @@
   </si>
   <si>
     <t xml:space="preserve">NOS0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SE03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ES00</t>
   </si>
 </sst>
 </file>
@@ -333,13 +339,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="true">
+  <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
+      <selection pane="topLeft" activeCell="E29" activeCellId="0" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -450,7 +456,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -467,7 +473,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -484,7 +490,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -501,7 +507,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -518,7 +524,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -535,7 +541,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -552,7 +558,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -569,7 +575,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -603,7 +609,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -620,7 +626,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -637,7 +643,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -654,7 +660,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -671,7 +677,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
@@ -790,14 +796,42 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="3" t="n">
+        <v>2040</v>
+      </c>
+      <c r="E27" s="1" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="3" t="n">
+        <v>2040</v>
+      </c>
+      <c r="E28" s="1" t="n">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E20">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="National Trends"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:E26"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/input/demand.xlsx
+++ b/input/demand.xlsx
@@ -345,7 +345,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E29" activeCellId="0" sqref="E29"/>
+      <selection pane="topLeft" activeCell="F25" activeCellId="0" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -797,7 +797,7 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -814,7 +814,7 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -827,7 +827,7 @@
         <v>2040</v>
       </c>
       <c r="E28" s="1" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
   </sheetData>

--- a/input/demand.xlsx
+++ b/input/demand.xlsx
@@ -345,7 +345,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F25" activeCellId="0" sqref="F25"/>
+      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -487,7 +487,7 @@
         <v>2040</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -827,7 +827,7 @@
         <v>2040</v>
       </c>
       <c r="E28" s="1" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
     </row>
   </sheetData>

--- a/input/demand.xlsx
+++ b/input/demand.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="24">
   <si>
     <t xml:space="preserve">Node</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t xml:space="preserve">ES00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">industry</t>
   </si>
 </sst>
 </file>
@@ -342,10 +345,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
+      <selection pane="topLeft" activeCell="F30" activeCellId="0" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -538,7 +541,7 @@
         <v>2040</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -589,7 +592,7 @@
         <v>2040</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -828,6 +831,57 @@
       </c>
       <c r="E28" s="1" t="n">
         <v>3000</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="3" t="n">
+        <v>2025</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="1" t="n">
+        <v>2030</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="3" t="n">
+        <v>2040</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>1450</v>
       </c>
     </row>
   </sheetData>

--- a/input/demand.xlsx
+++ b/input/demand.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F30" activeCellId="0" sqref="F30"/>
+      <selection pane="topLeft" activeCell="E31" activeCellId="0" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -834,7 +834,7 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -846,12 +846,12 @@
       <c r="D29" s="3" t="n">
         <v>2025</v>
       </c>
-      <c r="E29" s="0" t="n">
-        <v>1450</v>
+      <c r="E29" s="1" t="n">
+        <v>2900</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -863,12 +863,12 @@
       <c r="D30" s="1" t="n">
         <v>2030</v>
       </c>
-      <c r="E30" s="0" t="n">
-        <v>1450</v>
+      <c r="E30" s="1" t="n">
+        <v>2900</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -880,8 +880,8 @@
       <c r="D31" s="3" t="n">
         <v>2040</v>
       </c>
-      <c r="E31" s="0" t="n">
-        <v>1450</v>
+      <c r="E31" s="1" t="n">
+        <v>2900</v>
       </c>
     </row>
   </sheetData>

--- a/input/demand.xlsx
+++ b/input/demand.xlsx
@@ -11,7 +11,7 @@
     <sheet name="demand" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">demand!$A$1:$E$26</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">demand!$A$1:$E$31</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -342,13 +342,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
+  <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E31" activeCellId="0" sqref="E31"/>
+      <selection pane="topLeft" activeCell="E37" activeCellId="0" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -374,7 +374,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -391,7 +391,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -408,7 +408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -425,7 +425,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -442,7 +442,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -459,7 +459,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -476,7 +476,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -493,7 +493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -510,7 +510,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -527,7 +527,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -544,7 +544,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -561,7 +561,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -578,7 +578,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -595,7 +595,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -612,7 +612,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -629,7 +629,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -646,7 +646,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -663,7 +663,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -680,7 +680,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
@@ -711,7 +711,7 @@
         <v>2030</v>
       </c>
       <c r="E21" s="1" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -728,7 +728,7 @@
         <v>2030</v>
       </c>
       <c r="E22" s="1" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -745,7 +745,7 @@
         <v>2030</v>
       </c>
       <c r="E23" s="1" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -799,7 +799,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>21</v>
       </c>
@@ -816,7 +816,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>22</v>
       </c>
@@ -833,7 +833,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>5</v>
       </c>
@@ -867,7 +867,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>5</v>
       </c>
@@ -885,7 +885,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E26"/>
+  <autoFilter ref="A1:E31">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="2030"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/input/demand.xlsx
+++ b/input/demand.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E37" activeCellId="0" sqref="E37"/>
+      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -459,7 +459,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -476,7 +476,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -493,7 +493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -507,10 +507,10 @@
         <v>2040</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -527,7 +527,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -544,7 +544,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -561,7 +561,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -578,7 +578,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -612,7 +612,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -629,7 +629,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -643,10 +643,10 @@
         <v>2040</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -663,7 +663,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -680,7 +680,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
@@ -697,7 +697,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
@@ -714,7 +714,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>9</v>
       </c>
@@ -731,7 +731,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>10</v>
       </c>
@@ -748,7 +748,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>11</v>
       </c>
@@ -765,7 +765,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>16</v>
       </c>
@@ -782,7 +782,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>17</v>
       </c>
@@ -799,7 +799,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>21</v>
       </c>
@@ -816,7 +816,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>22</v>
       </c>
@@ -850,7 +850,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>5</v>
       </c>
@@ -867,7 +867,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>5</v>
       </c>
@@ -888,7 +888,7 @@
   <autoFilter ref="A1:E31">
     <filterColumn colId="3">
       <filters>
-        <filter val="2030"/>
+        <filter val="2040"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/input/demand.xlsx
+++ b/input/demand.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
+      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -507,7 +507,7 @@
         <v>2040</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>1600</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
